--- a/data/E Ecuador Exchange_Rates_incl_Effective_Ex_Ra (1Tr2014 a 2Tr2021 sólo trimestral) FMI.xlsx
+++ b/data/E Ecuador Exchange_Rates_incl_Effective_Ex_Ra (1Tr2014 a 2Tr2021 sólo trimestral) FMI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC1966C-83FD-A646-92B1-3062640E1180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660DCD15-E8B9-604A-8C69-F507285C2D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="245" zoomScaleNormal="245" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="245" zoomScaleNormal="245" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
